--- a/data/clientes_politica_v2.xlsx
+++ b/data/clientes_politica_v2.xlsx
@@ -8,16 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F25B326-24C0-44E1-A71D-A1D54E498CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{8F25B326-24C0-44E1-A71D-A1D54E498CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF7DE47-9E21-46DB-9A8F-BBAEF5E6BFDE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ACFC360D-21AC-4565-A746-6828575A75A7}"/>
+    <workbookView xWindow="38190" yWindow="800" windowWidth="18820" windowHeight="15410" activeTab="2" xr2:uid="{ACFC360D-21AC-4565-A746-6828575A75A7}"/>
   </bookViews>
   <sheets>
     <sheet name="base_clientes_modelo" sheetId="3" r:id="rId1"/>
     <sheet name="base_clientes_completa" sheetId="5" r:id="rId2"/>
     <sheet name="politica" sheetId="2" r:id="rId3"/>
+    <sheet name="base_politica" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="195">
   <si>
     <t>cpf</t>
   </si>
@@ -432,13 +446,196 @@
   </si>
   <si>
     <t>Ciclo 4</t>
+  </si>
+  <si>
+    <t>dias_pgto</t>
+  </si>
+  <si>
+    <t>desc_vista</t>
+  </si>
+  <si>
+    <t>desc_exc_vista</t>
+  </si>
+  <si>
+    <t>qtd_max_parcelas</t>
+  </si>
+  <si>
+    <t>perc_min_entrada</t>
+  </si>
+  <si>
+    <t>vlr_min_parcela</t>
+  </si>
+  <si>
+    <t>desc_parc_3_12</t>
+  </si>
+  <si>
+    <t>desc_parc_13_24</t>
+  </si>
+  <si>
+    <t>desc_parc_25_36</t>
+  </si>
+  <si>
+    <t>desc_parc_37_48</t>
+  </si>
+  <si>
+    <t>desc_parc_49_60</t>
+  </si>
+  <si>
+    <t>juros_3_12</t>
+  </si>
+  <si>
+    <t>juros_13_24</t>
+  </si>
+  <si>
+    <t>juros_25_36</t>
+  </si>
+  <si>
+    <t>juros_37_48</t>
+  </si>
+  <si>
+    <t>juros_49_60</t>
+  </si>
+  <si>
+    <t>desc_exc_parc_3_12</t>
+  </si>
+  <si>
+    <t>desc_exc_parc_13_24</t>
+  </si>
+  <si>
+    <t>desc_exc_parc_25_36</t>
+  </si>
+  <si>
+    <t>desc_exc_parc_37_48</t>
+  </si>
+  <si>
+    <t>desc_exc_parc_49_60</t>
+  </si>
+  <si>
+    <t>juros_exc_3_12</t>
+  </si>
+  <si>
+    <t>juros_exc_13_24</t>
+  </si>
+  <si>
+    <t>juros_exc_25_36</t>
+  </si>
+  <si>
+    <t>juros_exc_37_48</t>
+  </si>
+  <si>
+    <t>juros_exc_49_60</t>
+  </si>
+  <si>
+    <t>ciclo</t>
+  </si>
+  <si>
+    <t>fx_atraso</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>8.0%</t>
+  </si>
+  <si>
+    <t>6.0%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>15.0%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>2.0%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>12.0%</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>1.3%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>2.8%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>35.0%</t>
+  </si>
+  <si>
+    <t>22.0%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>40.0%</t>
+  </si>
+  <si>
+    <t>28.0%</t>
+  </si>
+  <si>
+    <t>45.0%</t>
+  </si>
+  <si>
+    <t>5.0%</t>
+  </si>
+  <si>
+    <t>R$50</t>
+  </si>
+  <si>
+    <t>10.0% a 15.0%</t>
+  </si>
+  <si>
+    <t>15.0% a 20.0%</t>
+  </si>
+  <si>
+    <t>20.0% a 25.0%</t>
+  </si>
+  <si>
+    <t>25.0% a 30.0%</t>
+  </si>
+  <si>
+    <t>30.0% a 35.0%</t>
+  </si>
+  <si>
+    <t>dt_ref</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +784,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -930,7 +1133,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -943,6 +1146,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,10 +1206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1690,3255 +1893,3556 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C736F3B4-CB78-48EB-9F22-3005C6A7E91B}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B2">
         <v>42006925890</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>35075</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>108</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>343482751</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5434.96</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B3">
         <v>34366343878</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>35800</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>109</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>831783229</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3722.86</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B4">
         <v>72388905850</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>28046</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>109</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>314939234</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4745.2299999999996</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B5">
         <v>85044167398</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>29167</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>216507078</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6468.61</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B6">
         <v>86406862031</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>31842</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>108</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>951937536</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8144.83</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B7">
         <v>84634445204</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>110</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>24435</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>968254040</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8466.5400000000009</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B8">
         <v>43467189571</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23868</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>109</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>576241830</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9934.66</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B9">
         <v>21573531600</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>110</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>37807</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>109</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>206547227</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7768.27</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B10">
         <v>96285056706</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>33351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>831560063</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7369.88</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B11">
         <v>91103415018</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>36105</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>109</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>443851264</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3127.08</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B12">
         <v>32985101735</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>35700</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>551118298</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2522.56</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B13">
         <v>15070784471</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30776</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>122414616</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1207.3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B14">
         <v>48401648270</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>113</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>35254</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>148104050</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>7039.15</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B15">
         <v>30948448040</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>25270</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>981282343</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>9831.4599999999991</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B16">
         <v>2343959668</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>111</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>32006</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>620838110</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5755.52</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B17">
         <v>12697030646</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>23700</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>21</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>122753875</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>7078.09</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B18">
         <v>62869488050</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>24461</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>108</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>619360421</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1629.36</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B19">
         <v>39053994238</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>115</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>24957</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>862813598</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6551.07</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B20">
         <v>59333293477</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30495</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>109</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>961081424</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5130.75</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B21">
         <v>50856433306</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>36834</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>108</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>932387400</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>8810.64</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B22">
         <v>62824603879</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>110</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>30030</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>21</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>354995081</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>8971.19</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B23">
         <v>45160842446</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>110</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>36102</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>109</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>130441425</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>6818.53</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B24">
         <v>47106320650</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>37737</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>109</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>833462015</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5518.69</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B25">
         <v>17069182597</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>117</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>24425</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>108</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>621064027</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4169.12</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B26">
         <v>9903213204</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>29110</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>666831812</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8330.2199999999993</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B27">
         <v>8932740380</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>25</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>27048</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>21</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>925664168</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>6598.87</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B28">
         <v>19130508584</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>27</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>28464</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>108</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>334361699</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8591.7199999999993</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B29">
         <v>37352802266</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>26840</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>109</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>255137084</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6223.2</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B30">
         <v>65360922605</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>25</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>34224</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>109</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>361145063</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>9206.5499999999993</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B31">
         <v>54832489704</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>112</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>16</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>110</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>34896</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>109</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>469266241</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>9958.6299999999992</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B32">
         <v>31472259920</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>36126</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>21</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>835020757</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1212.98</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B33">
         <v>26095861241</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>25</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>33212</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>108</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>525284308</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6458.39</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B34">
         <v>70508473802</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>120</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>36315</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>21</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>537758087</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>4536.0200000000004</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B35">
         <v>96743776386</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>16</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>110</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>26976</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>108</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>648419215</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>8951.77</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B36">
         <v>20081556845</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>30673</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>109</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>965164213</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>5666.3</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B37">
         <v>41827978252</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>116</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>25</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>33543</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>108</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>565871051</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>6802.26</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B38">
         <v>18757138087</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>118</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>25</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>32861</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>108</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>253452842</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>9044.0499999999993</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B39">
         <v>19832949777</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>27096</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>108</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>884016144</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3477.97</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B40">
         <v>12710946149</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>110</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>28664</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>21</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>440853979</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>4072.14</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B41">
         <v>36513817145</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>113</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>25</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>37430</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>108</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>894806104</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>6244.47</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B42">
         <v>2354091621</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>112</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>25</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>36853</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>108</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>434800250</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>5489.85</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B43">
         <v>13871071358</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>113</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>110</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>32746</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>109</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>824345442</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>5355.03</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B44">
         <v>567017990</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>27</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>28397</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>21</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>140587443</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>4304.72</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B45">
         <v>74914376210</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>116</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>27</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>25298</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>21</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>141799424</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3030.77</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B46">
         <v>92417518783</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>119</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>110</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>26054</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>109</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>753518334</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4378.62</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B47">
         <v>83353912037</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>112</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>15</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>27</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>34526</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>21</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>696759879</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2842.01</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B48">
         <v>18320589053</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>113</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>27</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>30472</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>108</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>603462942</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1232.2</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B49">
         <v>15129585062</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>25</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>32749</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>109</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>946055252</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>6033.06</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B50">
         <v>14715451301</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>16</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>27</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>35613</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>108</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>143250499</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1560.67</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B51">
         <v>66989563257</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>110</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>37222</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>108</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>843026029</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>4649.8999999999996</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B52">
         <v>78553853985</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>27</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>27172</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>21</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>949715742</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>8245.74</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B53">
         <v>73778724037</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>16</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>27</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>32433</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>21</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>211668543</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>5971.56</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B54">
         <v>45865605330</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>120</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>110</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>36665</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>21</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>925355574</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>5410.4</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B55">
         <v>51295353911</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>115</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>15</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>27</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>27165</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>108</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>815136071</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>5571.13</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B56">
         <v>97511848516</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>25</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>27629</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>21</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>636900930</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>3469.37</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B57">
         <v>86031984628</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>120</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>15</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>27</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>27656</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>21</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>626940829</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>7520.03</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B58">
         <v>36254327490</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>117</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>25</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>27433</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>108</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>351472492</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>659.61</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B59">
         <v>60943415462</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>114</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>16</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>27</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>26230</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>108</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>796920163</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>6501.17</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B60">
         <v>68630599405</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>16</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>25</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>30213</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>108</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>444219392</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>6757.68</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B61">
         <v>98840145826</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>118</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>16</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>25</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>37779</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>21</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>796311028</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>6337.07</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B62">
         <v>55655611597</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>112</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>16</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>27</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>25196</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>108</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>512661252</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1627.09</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B63">
         <v>47514943501</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>113</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>15</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>27</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>24941</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>108</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>989765753</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>9893.52</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B64">
         <v>31827850108</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>118</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>25</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>34589</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>109</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>963425881</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>6266.95</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B65">
         <v>35586995131</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>116</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>16</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>25</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>37430</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>109</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>266290710</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>9339.24</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B66">
         <v>32887994212</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>119</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>4</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>25</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>34047</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>21</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>190005720</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>7376.83</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B67">
         <v>81515128571</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>117</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>16</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>27</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>28186</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>21</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>906026922</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>7960.17</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B68">
         <v>46337510771</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>114</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>16</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>27</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>29485</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>109</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>698212548</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>6041.39</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B69">
         <v>74950307983</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>117</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>15</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>25</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>28605</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>108</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>343812440</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>502.4</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B70">
         <v>99212293891</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>118</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>9</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>27</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>25641</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>21</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>352747908</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>5215.0600000000004</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B71">
         <v>26031838850</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>114</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>9</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>16</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>110</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>28903</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>108</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>489011092</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>8329.2099999999991</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B72">
         <v>27215621693</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>119</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>15</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>110</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>29161</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>21</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>750851854</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5115.29</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B73">
         <v>48254478481</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>117</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>25</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>30176</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>108</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>586443030</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>2068.6999999999998</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B74">
         <v>53108040219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>116</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>4</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>16</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>110</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>24834</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>108</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>992346475</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>9007.51</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B75">
         <v>36158596930</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>119</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>15</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>110</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>25597</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>108</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>949479640</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>3446.57</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B76">
         <v>86917178071</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>120</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>4</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>16</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>27</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>33564</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>21</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>422682571</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>4128.01</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B77">
         <v>2334281000</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>111</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>16</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>27</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>31578</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>108</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>199924796</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1192.52</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B78">
         <v>48180494330</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>117</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>15</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>110</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>29802</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>109</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>548566190</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>5884.12</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B79">
         <v>87607047050</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>115</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>16</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>25</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>34042</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>108</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>259429590</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>666.03</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B80">
         <v>9877822407</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>116</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>16</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>25</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>27587</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>21</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>523898513</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>8514.5400000000009</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B81">
         <v>46893244681</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>116</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>4</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>16</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>25</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>24906</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>109</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>982953366</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>7564.3</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B82">
         <v>91496880650</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>115</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>4</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>15</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>27</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>28903</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>108</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>971767329</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>6198.71</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B83">
         <v>26311257548</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>116</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>15</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>27</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>28479</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>109</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>216460524</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>5344.1</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B84">
         <v>99991639047</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>111</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>16</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>27</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>27361</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>108</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>932710183</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>7482.94</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B85">
         <v>70599434120</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>117</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>4</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>16</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>25</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>25515</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>108</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>721333607</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1338.03</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B86">
         <v>90986185612</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>119</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>4</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>15</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>110</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>30044</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>109</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>214049208</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>9459.09</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B87">
         <v>77515717645</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>115</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>4</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>15</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>25</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>23640</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>21</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>863592326</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>5850.43</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B88">
         <v>74608417576</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>6</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>16</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>110</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>36153</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>109</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>865659326</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>8411.24</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B89">
         <v>24071053380</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>116</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>15</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>110</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>31316</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>109</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>825023534</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>9097.2900000000009</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B90">
         <v>88485580702</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>113</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>16</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>110</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>25362</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>21</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>814920999</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>4464.28</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B91">
         <v>62311319477</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>118</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>16</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>27</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>25984</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>109</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>990069500</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>8274.94</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B92">
         <v>17949776005</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>115</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>15</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>27</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>36163</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>21</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>316310947</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>2367.84</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B93">
         <v>3509659279</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>118</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>4</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>27</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>28573</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>109</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>176855946</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>8578.0300000000007</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B94">
         <v>10320082610</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>120</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>4</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>27</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>35209</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>21</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>674221680</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>5851.6</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B95">
         <v>51589942850</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>116</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>4</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>16</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>110</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>33034</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>108</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>178567055</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>2605.98</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B96">
         <v>19045116278</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>117</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>9</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>16</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>27</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>24352</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>108</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>762823951</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>1499.31</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B97">
         <v>33755869063</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>119</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>15</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>110</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>38056</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>109</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>589868993</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>7067.54</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B98">
         <v>80481414690</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>117</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>9</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>16</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>25</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>32947</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>21</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>831728465</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>6978.76</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B99">
         <v>67427092600</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>114</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>15</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>25</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>29438</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>108</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>249593368</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>8639.0400000000009</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B100">
         <v>9376647076</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>113</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>16</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>27</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>27201</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>108</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>824231340</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>8635.7000000000007</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>45468</v>
+      </c>
+      <c r="B101">
         <v>15116071227</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>111</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>9</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>15</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>27</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>35457</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>108</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>194139312</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>6116.92</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>101</v>
       </c>
     </row>
@@ -4949,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DBE441-4C27-4A08-8FFB-663BF6A37463}">
-  <dimension ref="B2:AD43"/>
+  <dimension ref="B2:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5856,178 +6360,1314 @@
       <c r="B14" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF049105-6279-46EF-97F5-AB427562883B}">
+  <dimension ref="A1:AC21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="4">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="4">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="4">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="4">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="4">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="4">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="4">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="4">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="4">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="6:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="6:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="6:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="6:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
